--- a/測試結果.xlsx
+++ b/測試結果.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB\Documents\GitHub\PMC\期刊\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB\Documents\GitHub\Multi-Strategy-Enhanced-Whale-Optimization-Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4936291B-8857-4337-9942-1D16EF2AA373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8793654C-ED25-437D-B720-B0F4FB1D5933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="64">
   <si>
     <t>WOA</t>
   </si>
@@ -689,7 +689,7 @@
   <dimension ref="D1:AV27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:Z26"/>
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -904,7 +904,7 @@
       </c>
       <c r="T4" s="10"/>
       <c r="U4" s="10">
-        <v>2.7899999999999999E-273</v>
+        <v>3.5599999999999999E-270</v>
       </c>
       <c r="V4" s="10">
         <v>0</v>
@@ -958,10 +958,10 @@
       </c>
       <c r="T5" s="10"/>
       <c r="U5" s="10">
-        <v>3.4799999999999999E-137</v>
+        <v>1.9E-137</v>
       </c>
       <c r="V5" s="10">
-        <v>1.9900000000000001E-136</v>
+        <v>1.2699999999999999E-136</v>
       </c>
       <c r="W5" s="10"/>
       <c r="X5" s="10">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="T6" s="10"/>
       <c r="U6" s="10">
-        <v>2.2299999999999999E-211</v>
+        <v>2.1799999999999999E-211</v>
       </c>
       <c r="V6" s="10">
         <v>0</v>
@@ -1066,10 +1066,10 @@
       </c>
       <c r="T7" s="10"/>
       <c r="U7" s="10">
-        <v>5.7700000000000004E-133</v>
+        <v>2.51E-132</v>
       </c>
       <c r="V7" s="10">
-        <v>3.9899999999999999E-132</v>
+        <v>1.3899999999999999E-131</v>
       </c>
       <c r="W7" s="10"/>
       <c r="X7" s="12">
@@ -1120,10 +1120,10 @@
       </c>
       <c r="T8" s="10"/>
       <c r="U8" s="10">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="V8" s="10">
-        <v>0.315</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="W8" s="10"/>
       <c r="X8" s="12">
@@ -1228,10 +1228,10 @@
       </c>
       <c r="T10" s="10"/>
       <c r="U10" s="10">
-        <v>2.61E-4</v>
+        <v>3.3500000000000001E-4</v>
       </c>
       <c r="V10" s="10">
-        <v>2.3000000000000001E-4</v>
+        <v>3.9399999999999998E-4</v>
       </c>
       <c r="W10" s="10"/>
       <c r="X10" s="12">
@@ -1282,10 +1282,10 @@
       </c>
       <c r="T11" s="10"/>
       <c r="U11" s="10">
-        <v>-12600</v>
+        <v>-12200</v>
       </c>
       <c r="V11" s="10">
-        <v>0.80400000000000005</v>
+        <v>498</v>
       </c>
       <c r="W11" s="10"/>
       <c r="X11" s="10">
@@ -1498,10 +1498,10 @@
       </c>
       <c r="T15" s="10"/>
       <c r="U15" s="10">
-        <v>2.2599999999999999E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="V15" s="10">
-        <v>9.0100000000000006E-3</v>
+        <v>7.1599999999999997E-3</v>
       </c>
       <c r="W15" s="10"/>
       <c r="X15" s="12">
@@ -1552,10 +1552,10 @@
       </c>
       <c r="T16" s="10"/>
       <c r="U16" s="10">
-        <v>0.33900000000000002</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="V16" s="10">
-        <v>0.108</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="W16" s="10"/>
       <c r="X16" s="12">
@@ -1606,10 +1606,10 @@
       </c>
       <c r="T17" s="10"/>
       <c r="U17" s="10">
-        <v>1.1299999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="V17" s="10">
-        <v>0.32600000000000001</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="W17" s="10"/>
       <c r="X17" s="12">
@@ -1659,14 +1659,14 @@
         <v>7.1700000000000002E-3</v>
       </c>
       <c r="T18" s="10"/>
-      <c r="U18" s="12">
-        <v>4.3800000000000002E-4</v>
+      <c r="U18" s="10">
+        <v>6.9700000000000003E-4</v>
       </c>
       <c r="V18" s="10">
-        <v>1.5100000000000001E-4</v>
+        <v>5.8200000000000005E-4</v>
       </c>
       <c r="W18" s="10"/>
-      <c r="X18" s="10">
+      <c r="X18" s="12">
         <v>5.0100000000000003E-4</v>
       </c>
       <c r="Y18" s="10">
@@ -1717,7 +1717,7 @@
         <v>-1.03</v>
       </c>
       <c r="V19" s="10">
-        <v>8.0699999999999996E-7</v>
+        <v>3.4999999999999998E-7</v>
       </c>
       <c r="W19" s="10"/>
       <c r="X19" s="12">
@@ -1771,7 +1771,7 @@
         <v>0.39800000000000002</v>
       </c>
       <c r="V20" s="10">
-        <v>1.3699999999999999E-5</v>
+        <v>9.0499999999999997E-6</v>
       </c>
       <c r="W20" s="10"/>
       <c r="X20" s="10">
@@ -1825,7 +1825,7 @@
         <v>3</v>
       </c>
       <c r="V21" s="10">
-        <v>3.3799999999999998E-4</v>
+        <v>3.0699999999999998E-4</v>
       </c>
       <c r="W21" s="10"/>
       <c r="X21" s="12">
@@ -1879,7 +1879,7 @@
         <v>-3.86</v>
       </c>
       <c r="V22" s="10">
-        <v>3.28E-4</v>
+        <v>4.8299999999999998E-4</v>
       </c>
       <c r="W22" s="10"/>
       <c r="X22" s="12">
@@ -1929,14 +1929,14 @@
         <v>0.35</v>
       </c>
       <c r="T23" s="10"/>
-      <c r="U23" s="12">
-        <v>-3.29</v>
+      <c r="U23" s="10">
+        <v>-3.24</v>
       </c>
       <c r="V23" s="10">
-        <v>6.9199999999999998E-2</v>
+        <v>9.7900000000000001E-2</v>
       </c>
       <c r="W23" s="10"/>
-      <c r="X23" s="10">
+      <c r="X23" s="12">
         <v>-3.26</v>
       </c>
       <c r="Y23" s="10">
@@ -1983,11 +1983,11 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="T24" s="10"/>
-      <c r="U24" s="12">
-        <v>-10.199999999999999</v>
+      <c r="U24" s="10">
+        <v>-10.1</v>
       </c>
       <c r="V24" s="10">
-        <v>8.6200000000000003E-4</v>
+        <v>5.3400000000000001E-3</v>
       </c>
       <c r="W24" s="10"/>
       <c r="X24" s="12">
@@ -2041,7 +2041,7 @@
         <v>-10.4</v>
       </c>
       <c r="V25" s="10">
-        <v>4.86E-4</v>
+        <v>3.6800000000000001E-3</v>
       </c>
       <c r="W25" s="10"/>
       <c r="X25" s="12">
@@ -2095,7 +2095,7 @@
         <v>-10.5</v>
       </c>
       <c r="V26" s="11">
-        <v>8.9800000000000004E-4</v>
+        <v>3.5799999999999998E-3</v>
       </c>
       <c r="W26" s="11"/>
       <c r="X26" s="13">
@@ -2140,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8EDCA8-B824-464A-8D62-C422861BF644}">
   <dimension ref="C1:N73"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2343,21 +2343,21 @@
         <v>6</v>
       </c>
       <c r="E9" s="10">
-        <v>2.7899999999999999E-273</v>
+        <v>3.5599999999999999E-270</v>
       </c>
       <c r="F9" s="10">
         <v>0</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="10">
-        <v>3.4799999999999999E-137</v>
+        <v>1.9E-137</v>
       </c>
       <c r="I9" s="10">
-        <v>1.9900000000000001E-136</v>
+        <v>1.2699999999999999E-136</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="10">
-        <v>2.2299999999999999E-211</v>
+        <v>2.1799999999999999E-211</v>
       </c>
       <c r="L9" s="10">
         <v>0</v>
@@ -2549,16 +2549,16 @@
         <v>6</v>
       </c>
       <c r="E18" s="10">
-        <v>5.7700000000000004E-133</v>
+        <v>2.51E-132</v>
       </c>
       <c r="F18" s="10">
-        <v>3.9899999999999999E-132</v>
+        <v>1.3899999999999999E-131</v>
       </c>
       <c r="H18" s="10">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="I18" s="10">
-        <v>0.315</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="K18" s="12">
         <v>0</v>
@@ -2753,16 +2753,16 @@
         <v>6</v>
       </c>
       <c r="E27" s="10">
-        <v>2.61E-4</v>
+        <v>3.3500000000000001E-4</v>
       </c>
       <c r="F27" s="10">
-        <v>2.3000000000000001E-4</v>
+        <v>3.9399999999999998E-4</v>
       </c>
       <c r="H27" s="10">
-        <v>-12600</v>
+        <v>-12200</v>
       </c>
       <c r="I27" s="10">
-        <v>0.80400000000000005</v>
+        <v>498</v>
       </c>
       <c r="K27" s="12">
         <v>0</v>
@@ -2969,10 +2969,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="10">
-        <v>2.2599999999999999E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="L36" s="10">
-        <v>9.0100000000000006E-3</v>
+        <v>7.1599999999999997E-3</v>
       </c>
     </row>
     <row r="37" spans="3:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -3161,22 +3161,22 @@
         <v>6</v>
       </c>
       <c r="E45" s="10">
-        <v>0.33900000000000002</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="F45" s="10">
-        <v>0.108</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="H45" s="10">
-        <v>1.1299999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="I45" s="10">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="K45" s="12">
-        <v>4.3800000000000002E-4</v>
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="K45" s="10">
+        <v>6.9700000000000003E-4</v>
       </c>
       <c r="L45" s="10">
-        <v>1.5100000000000001E-4</v>
+        <v>5.8200000000000005E-4</v>
       </c>
     </row>
     <row r="46" spans="3:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -3368,19 +3368,19 @@
         <v>-1.03</v>
       </c>
       <c r="F54" s="10">
-        <v>8.0699999999999996E-7</v>
+        <v>3.4999999999999998E-7</v>
       </c>
       <c r="H54" s="12">
         <v>0.39800000000000002</v>
       </c>
       <c r="I54" s="10">
-        <v>1.3699999999999999E-5</v>
+        <v>9.0499999999999997E-6</v>
       </c>
       <c r="K54" s="12">
         <v>3</v>
       </c>
       <c r="L54" s="10">
-        <v>3.3799999999999998E-4</v>
+        <v>3.0699999999999998E-4</v>
       </c>
     </row>
     <row r="55" spans="3:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -3572,19 +3572,19 @@
         <v>-3.86</v>
       </c>
       <c r="F63" s="10">
-        <v>3.28E-4</v>
-      </c>
-      <c r="H63" s="12">
-        <v>-3.29</v>
+        <v>4.8299999999999998E-4</v>
+      </c>
+      <c r="H63" s="10">
+        <v>-3.24</v>
       </c>
       <c r="I63" s="10">
-        <v>6.9199999999999998E-2</v>
-      </c>
-      <c r="K63" s="12">
-        <v>-10.199999999999999</v>
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="K63" s="10">
+        <v>-10.1</v>
       </c>
       <c r="L63" s="10">
-        <v>8.6200000000000003E-4</v>
+        <v>5.3400000000000001E-3</v>
       </c>
     </row>
     <row r="64" spans="3:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -3745,13 +3745,13 @@
         <v>-10.4</v>
       </c>
       <c r="F72" s="10">
-        <v>4.86E-4</v>
+        <v>3.6800000000000001E-3</v>
       </c>
       <c r="H72" s="12">
         <v>-10.5</v>
       </c>
       <c r="I72" s="10">
-        <v>8.9800000000000004E-4</v>
+        <v>3.5799999999999998E-3</v>
       </c>
     </row>
     <row r="73" spans="3:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
